--- a/4.YII/Outputs/Multicomp_AcerYII.xlsx
+++ b/4.YII/Outputs/Multicomp_AcerYII.xlsx
@@ -11,6 +11,11 @@
     <sheet name="Multicomp_AcerYII" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -149,11 +154,12 @@
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -172,12 +178,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -247,7 +247,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -260,7 +260,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -268,7 +268,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -284,7 +284,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -308,7 +308,23 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -331,8 +347,8 @@
   </sheetPr>
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J28" activeCellId="0" sqref="J28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I35" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H46" activeCellId="0" sqref="H46:I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -750,7 +766,7 @@
       <c r="H12" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="5" t="n">
+      <c r="I12" s="15" t="n">
         <f aca="false">(C12-C$11)/C$11</f>
         <v>0.0546524875157218</v>
       </c>
@@ -854,11 +870,11 @@
       <c r="H15" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="5" t="n">
+      <c r="I15" s="15" t="n">
         <f aca="false">(C15-C$14)/C$14</f>
         <v>0.0507957604112625</v>
       </c>
-      <c r="J15" s="11" t="n">
+      <c r="J15" s="16" t="n">
         <f aca="false">(C15-C$3)/C$3</f>
         <v>0.0504438578733297</v>
       </c>
@@ -889,11 +905,11 @@
       <c r="H16" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="5" t="n">
+      <c r="I16" s="15" t="n">
         <f aca="false">(C16-C$14)/C$14</f>
         <v>0.0601636576005492</v>
       </c>
-      <c r="J16" s="14" t="n">
+      <c r="J16" s="17" t="n">
         <f aca="false">(C16-C$4)/C$4</f>
         <v>0.0521148324789053</v>
       </c>
@@ -958,11 +974,11 @@
       <c r="H18" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="5" t="n">
+      <c r="I18" s="15" t="n">
         <f aca="false">(C18-C$17)/C$17</f>
         <v>0.0973322481631347</v>
       </c>
-      <c r="J18" s="11" t="n">
+      <c r="J18" s="16" t="n">
         <f aca="false">(C18-C$3)/C$3</f>
         <v>0.0571859515987511</v>
       </c>
@@ -993,11 +1009,11 @@
       <c r="H19" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="15" t="n">
+      <c r="I19" s="17" t="n">
         <f aca="false">(C19-C$17)/C$17</f>
         <v>0.0965543940876072</v>
       </c>
-      <c r="J19" s="14" t="n">
+      <c r="J19" s="17" t="n">
         <f aca="false">(C19-C$4)/C$4</f>
         <v>0.0487672500595614</v>
       </c>
@@ -1062,7 +1078,7 @@
       <c r="H21" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="5" t="n">
+      <c r="I21" s="15" t="n">
         <f aca="false">(C21-C$20)/C$20</f>
         <v>0.054360112254418</v>
       </c>
@@ -1097,7 +1113,7 @@
       <c r="H22" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="5" t="n">
+      <c r="I22" s="15" t="n">
         <f aca="false">(C22-C$20)/C$20</f>
         <v>0.0870195798549974</v>
       </c>
@@ -1166,7 +1182,7 @@
       <c r="H24" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="5" t="n">
+      <c r="I24" s="15" t="n">
         <f aca="false">(C24-C$23)/C$23</f>
         <v>0.0729048945360771</v>
       </c>
@@ -1201,7 +1217,7 @@
       <c r="H25" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I25" s="15" t="n">
+      <c r="I25" s="18" t="n">
         <f aca="false">(C25-C$23)/C$23</f>
         <v>0.0375528232630428</v>
       </c>
@@ -1270,7 +1286,7 @@
       <c r="H27" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="5" t="n">
+      <c r="I27" s="15" t="n">
         <f aca="false">(C27-C$26)/C$26</f>
         <v>0.0714276966793624</v>
       </c>
@@ -1305,7 +1321,7 @@
       <c r="H28" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="I28" s="5" t="n">
+      <c r="I28" s="15" t="n">
         <f aca="false">(C28-C$26)/C$26</f>
         <v>0.0574523408238975</v>
       </c>
@@ -1415,7 +1431,7 @@
       <c r="H31" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="15" t="n">
+      <c r="I31" s="18" t="n">
         <f aca="false">(C31-C$29)/C$29</f>
         <v>0.060882027966321</v>
       </c>
@@ -1641,7 +1657,7 @@
       <c r="H37" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I37" s="15" t="n">
+      <c r="I37" s="18" t="n">
         <f aca="false">(C37-C$35)/C$35</f>
         <v>0.0315392923823712</v>
       </c>
@@ -1795,11 +1811,11 @@
       <c r="I41" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J41" s="10" t="n">
+      <c r="J41" s="19" t="n">
         <f aca="false">(C41-C$2)/C$2</f>
         <v>-0.12874653783881</v>
       </c>
-      <c r="K41" s="10" t="n">
+      <c r="K41" s="19" t="n">
         <f aca="false">(C41-C$26)/C$26</f>
         <v>-0.0481146072247726</v>
       </c>
@@ -1833,11 +1849,11 @@
         <f aca="false">(C42-C$41)/C$41</f>
         <v>-0.23800517901129</v>
       </c>
-      <c r="J42" s="11" t="n">
+      <c r="J42" s="16" t="n">
         <f aca="false">(C42-C$3)/C$3</f>
         <v>-0.323689077864457</v>
       </c>
-      <c r="K42" s="11" t="n">
+      <c r="K42" s="16" t="n">
         <f aca="false">(C42-C$27)/C$27</f>
         <v>-0.323023157122481</v>
       </c>
@@ -1867,15 +1883,15 @@
       <c r="H43" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="I43" s="15" t="n">
+      <c r="I43" s="18" t="n">
         <f aca="false">(C43-C$41)/C$41</f>
         <v>-0.0914698461268939</v>
       </c>
-      <c r="J43" s="14" t="n">
+      <c r="J43" s="17" t="n">
         <f aca="false">(C43-C$4)/C$4</f>
         <v>-0.199485092142838</v>
       </c>
-      <c r="K43" s="14" t="n">
+      <c r="K43" s="17" t="n">
         <f aca="false">(C43-C$28)/C$28</f>
         <v>-0.182169683700515</v>
       </c>
@@ -2025,7 +2041,7 @@
         <f aca="false">(C47-C$2)/C$2</f>
         <v>-0.188002042402615</v>
       </c>
-      <c r="K47" s="10" t="n">
+      <c r="K47" s="19" t="n">
         <f aca="false">(C47-C$26)/C$26</f>
         <v>-0.112854033448569</v>
       </c>
@@ -2063,7 +2079,7 @@
         <f aca="false">(C48-C$3)/C$3</f>
         <v>-0.492892951409875</v>
       </c>
-      <c r="K48" s="11" t="n">
+      <c r="K48" s="16" t="n">
         <f aca="false">(C48-C$27)/C$27</f>
         <v>-0.492393635058467</v>
       </c>
@@ -2093,7 +2109,7 @@
       <c r="H49" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="I49" s="15" t="n">
+      <c r="I49" s="18" t="n">
         <f aca="false">(C49-C$47)/C$47</f>
         <v>-0.300884082804529</v>
       </c>
@@ -2101,7 +2117,7 @@
         <f aca="false">(C49-C$4)/C$4</f>
         <v>-0.425897169355116</v>
       </c>
-      <c r="K49" s="14" t="n">
+      <c r="K49" s="17" t="n">
         <f aca="false">(C49-C$28)/C$28</f>
         <v>-0.413479130786515</v>
       </c>
@@ -2200,7 +2216,7 @@
       <c r="H52" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="I52" s="15" t="n">
+      <c r="I52" s="18" t="n">
         <f aca="false">(C52-C$50)/C$50</f>
         <v>-0.343000033227144</v>
       </c>
